--- a/OP13/Data.xlsx
+++ b/OP13/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garet\Documents\MATLAB\GEPhysRepo\OP13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9475D8-8B1D-42D7-9D49-B385F3B56131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D1281-2143-49FA-AC9C-8A778448AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20DD2B64-941A-44F6-83C7-E885654A5A93}"/>
+    <workbookView xWindow="5100" yWindow="1296" windowWidth="17280" windowHeight="8880" xr2:uid="{20DD2B64-941A-44F6-83C7-E885654A5A93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,11 +123,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000000E+00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.0000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -162,9 +163,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -172,22 +173,19 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000E+00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000E+00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.000E+00"/>
+      <numFmt numFmtId="167" formatCode="0.000E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000E+00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000E+00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000E+00"/>
+      <numFmt numFmtId="167" formatCode="0.000E+00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -215,6 +213,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.000000E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.000E+00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -230,37 +231,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CDEC40D-7567-4939-89C0-5DC3F3FC282A}" name="Table1" displayName="Table1" ref="A1:N5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3CDEC40D-7567-4939-89C0-5DC3F3FC282A}" name="Table1" displayName="Table1" ref="A1:N5" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:N5" xr:uid="{3CDEC40D-7567-4939-89C0-5DC3F3FC282A}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{023265CA-FD9E-42AB-AFE1-40842F405D89}" name="Line" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{28FF8DA1-E5AF-4829-AC27-7C7AC3E9D278}" name="z_1" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{21A5FAE6-39B7-4EDE-B39D-A6C860F58E5C}" name="z_2" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{FFF62266-8871-4562-A176-2DE6588FEC6D}" name="z_3" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A09E0450-15A1-4CD8-82BF-9FFB20BB6BF4}" name="Colour" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{BCEE16DB-D43C-4E9F-9845-A12B78658C87}" name="n" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{E5CC6DA6-F2AB-4C20-8098-F04C1DCA9F46}" name="z_Avg" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{023265CA-FD9E-42AB-AFE1-40842F405D89}" name="Line" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{28FF8DA1-E5AF-4829-AC27-7C7AC3E9D278}" name="z_1" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{21A5FAE6-39B7-4EDE-B39D-A6C860F58E5C}" name="z_2" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{FFF62266-8871-4562-A176-2DE6588FEC6D}" name="z_3" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A09E0450-15A1-4CD8-82BF-9FFB20BB6BF4}" name="Colour" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{BCEE16DB-D43C-4E9F-9845-A12B78658C87}" name="n" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{E5CC6DA6-F2AB-4C20-8098-F04C1DCA9F46}" name="z_Avg" dataDxfId="7">
       <calculatedColumnFormula>AVERAGE(B2,D2,C2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{43EEDAAA-136D-486B-8133-89EF6197354B}" name="Wavelength" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{43EEDAAA-136D-486B-8133-89EF6197354B}" name="Wavelength" dataDxfId="6">
       <calculatedColumnFormula>(-$H$8+SQRT($H$8^2-4*$H$7*($H$9-G2)))/(2*$H$7)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A2E25C07-11B3-4424-9951-DE41453EE5DE}" name="Error" dataDxfId="6">
+    <tableColumn id="9" xr3:uid="{A2E25C07-11B3-4424-9951-DE41453EE5DE}" name="Error" dataDxfId="5">
       <calculatedColumnFormula>(2*$H$7*H2+$H$8)^-1*0.01</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{F4699AC3-9CCE-4022-9E53-26B585B751A3}" name="rel_error" dataDxfId="5">
+    <tableColumn id="10" xr3:uid="{F4699AC3-9CCE-4022-9E53-26B585B751A3}" name="rel_error" dataDxfId="4">
       <calculatedColumnFormula>I2/H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{3BB3EEA7-F192-4827-8E5E-89C6E053B75A}" name="R_h" dataDxfId="4">
+    <tableColumn id="11" xr3:uid="{3BB3EEA7-F192-4827-8E5E-89C6E053B75A}" name="R_h" dataDxfId="3">
       <calculatedColumnFormula>1/(H2*0.0000000001*(2^-2-F2^-2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{DDDF99D1-A9D3-4CC0-A409-1E630E74B0A0}" name="R_err" dataDxfId="3">
+    <tableColumn id="12" xr3:uid="{DDDF99D1-A9D3-4CC0-A409-1E630E74B0A0}" name="R_err" dataDxfId="2">
       <calculatedColumnFormula>J2*K2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E979C425-D131-4F49-BE2A-32EF310E8A08}" name="Weights" dataDxfId="2">
+    <tableColumn id="13" xr3:uid="{E979C425-D131-4F49-BE2A-32EF310E8A08}" name="Weights" dataDxfId="1">
       <calculatedColumnFormula>L2^-2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{1349BB1D-3F7E-470F-8587-534FED872AC5}" name="Weighted Value" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{1349BB1D-3F7E-470F-8587-534FED872AC5}" name="Weighted Value" dataDxfId="0">
       <calculatedColumnFormula>M2*K2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -585,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ED5FA7-5920-4F71-A940-0310A0FD846F}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,13 +598,13 @@
     <col min="2" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.21875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.88671875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.21875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="5" customWidth="1"/>
     <col min="14" max="14" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -611,40 +612,40 @@
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
@@ -655,208 +656,208 @@
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
+        <v>20.39</v>
+      </c>
+      <c r="C2">
+        <v>20.39</v>
+      </c>
+      <c r="D2">
         <v>20.38</v>
       </c>
-      <c r="C2" s="3">
-        <v>20.37</v>
-      </c>
-      <c r="D2" s="3">
-        <v>20.37</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="G2" s="4">
-        <f>AVERAGE(B2,D2,C2)</f>
-        <v>20.373333333333335</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G5" si="0">AVERAGE(B2,D2,C2)</f>
+        <v>20.386666666666667</v>
+      </c>
+      <c r="H2" s="4">
         <f>(-$H$8+SQRT($H$8^2-4*$H$7*($H$9-G2)))/(2*$H$7)</f>
-        <v>4099.1700271495447</v>
-      </c>
-      <c r="I2" s="5">
+        <v>4101.8585359963799</v>
+      </c>
+      <c r="I2" s="4">
         <f>(2*$H$7*H2+$H$8)^-1*0.01</f>
-        <v>2.0163695565267212</v>
-      </c>
-      <c r="J2" s="6">
+        <v>2.0163937138721968</v>
+      </c>
+      <c r="J2" s="5">
         <f>I2/H2</f>
-        <v>4.9189702870872413E-4</v>
+        <v>4.9158051068243279E-4</v>
       </c>
       <c r="K2" s="2">
         <f>1/(H2*0.0000000001*(2^-2-F2^-2))</f>
-        <v>10977832.025009174</v>
-      </c>
-      <c r="L2" s="6">
+        <v>10970636.750413693</v>
+      </c>
+      <c r="L2" s="5">
         <f>J2*K2</f>
-        <v>5399.9629547654886</v>
-      </c>
-      <c r="M2" s="6">
+        <v>5392.9512162798283</v>
+      </c>
+      <c r="M2" s="5">
         <f>L2^-2</f>
-        <v>3.429402334013772E-8</v>
+        <v>3.4383257243137992E-8</v>
       </c>
       <c r="N2" s="1">
         <f>M2*K2</f>
-        <v>0.37647402768977595</v>
+        <v>0.37720622551049748</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3">
         <v>21.57</v>
       </c>
-      <c r="C3" s="3">
-        <v>21.55</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3">
+        <v>21.58</v>
+      </c>
+      <c r="D3">
         <v>21.57</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="G3" s="4">
-        <f t="shared" ref="G3:G5" si="0">AVERAGE(B3,D3,C3)</f>
-        <v>21.563333333333333</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>21.573333333333334</v>
+      </c>
+      <c r="H3" s="4">
         <f>(-$H$8+SQRT($H$8^2-4*$H$7*($H$9-G3)))/(2*$H$7)</f>
-        <v>4339.2464239838337</v>
-      </c>
-      <c r="I3" s="5">
+        <v>4341.2649620968941</v>
+      </c>
+      <c r="I3" s="4">
         <f>(2*$H$7*H3+$H$8)^-1*0.01</f>
-        <v>2.0185290250022199</v>
-      </c>
-      <c r="J3" s="6">
+        <v>2.0185472012040115</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J5" si="1">I3/H3</f>
-        <v>4.6517962516381397E-4</v>
+        <v>4.6496751956577739E-4</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:K5" si="2">1/(H3*0.0000000001*(2^-2-F3^-2))</f>
-        <v>10974036.264879579</v>
-      </c>
-      <c r="L3" s="6">
+        <v>10968933.717431271</v>
+      </c>
+      <c r="L3" s="5">
         <f t="shared" ref="L3:L5" si="3">J3*K3</f>
-        <v>5104.8980762307838</v>
-      </c>
-      <c r="M3" s="6">
+        <v>5100.1979028754404</v>
+      </c>
+      <c r="M3" s="5">
         <f t="shared" ref="M3:M5" si="4">L3^-2</f>
-        <v>3.8373008435142906E-8</v>
+        <v>3.844376761039483E-8</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N5" si="5">M3*K3</f>
-        <v>0.42110678615978819</v>
+        <v>0.42168713876675207</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
+        <v>24.15</v>
+      </c>
+      <c r="C4">
         <v>24.16</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4">
         <v>24.16</v>
       </c>
-      <c r="D4" s="3">
-        <v>24.17</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>4</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>24.16333333333333</v>
-      </c>
-      <c r="H4" s="5">
+        <v>24.156666666666666</v>
+      </c>
+      <c r="H4" s="4">
         <f>(-$H$8+SQRT($H$8^2-4*$H$7*($H$9-G4)))/(2*$H$7)</f>
-        <v>4864.6797603303112</v>
-      </c>
-      <c r="I4" s="5">
+        <v>4863.3309167749621</v>
+      </c>
+      <c r="I4" s="4">
         <f>(2*$H$7*H4+$H$8)^-1*0.01</f>
-        <v>2.023271434433267</v>
-      </c>
-      <c r="J4" s="6">
+        <v>2.0232592316320814</v>
+      </c>
+      <c r="J4" s="5">
         <f t="shared" si="1"/>
-        <v>4.1591050883396424E-4</v>
+        <v>4.1602335235986211E-4</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" si="2"/>
-        <v>10963380.111522902</v>
-      </c>
-      <c r="L4" s="6">
+        <v>10966420.802123917</v>
+      </c>
+      <c r="L4" s="5">
         <f t="shared" si="3"/>
-        <v>4559.7850007236539</v>
-      </c>
-      <c r="M4" s="6">
+        <v>4562.2871454885199</v>
+      </c>
+      <c r="M4" s="5">
         <f t="shared" si="4"/>
-        <v>4.8096255799751642E-8</v>
+        <v>4.8043514361041534E-8</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="5"/>
-        <v>0.52729753427371517</v>
+        <v>0.52686539529606502</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>32.54</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>32.54</v>
       </c>
-      <c r="D5" s="3">
-        <v>32.54</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5">
+        <v>32.53</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>32.54</v>
-      </c>
-      <c r="H5" s="5">
+        <v>32.536666666666662</v>
+      </c>
+      <c r="H5" s="4">
         <f>(-$H$8+SQRT($H$8^2-4*$H$7*($H$9-G5)))/(2*$H$7)</f>
-        <v>6565.9778861169907</v>
-      </c>
-      <c r="I5" s="5">
+        <v>6565.2982935172786</v>
+      </c>
+      <c r="I5" s="4">
         <f>(2*$H$7*H5+$H$8)^-1*0.01</f>
-        <v>2.0387809205344452</v>
-      </c>
-      <c r="J5" s="6">
+        <v>2.0387746777159799</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="1"/>
-        <v>3.1050682105482173E-4</v>
+        <v>3.1053801161313739E-4</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" si="2"/>
-        <v>10965617.193477876</v>
-      </c>
-      <c r="L5" s="6">
+        <v>10966752.275535507</v>
+      </c>
+      <c r="L5" s="5">
         <f t="shared" si="3"/>
-        <v>3404.8989356509114</v>
-      </c>
-      <c r="M5" s="6">
+        <v>3405.5934454986464</v>
+      </c>
+      <c r="M5" s="5">
         <f t="shared" si="4"/>
-        <v>8.6256443725332703E-8</v>
+        <v>8.6221266395928492E-8</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="5"/>
-        <v>0.94585514236276513</v>
+        <v>0.9455672694471019</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -865,16 +866,16 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="1">
         <f>SUM(N2:N5)/SUM(M2:M5)</f>
-        <v>10968681.469262641</v>
+        <v>10967725.267180849</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -885,10 +886,18 @@
       <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>-1.105E-8</v>
       </c>
+      <c r="J7" s="5">
+        <f>1/J2^2</f>
+        <v>4138192.480070299</v>
+      </c>
       <c r="K7" s="2"/>
+      <c r="N7" s="6">
+        <f>1/SQRT(SUM(J7:J10))</f>
+        <v>2.0035582578444109E-4</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C8" s="2"/>
@@ -898,10 +907,18 @@
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>5.0499999999999998E-3</v>
       </c>
+      <c r="J8" s="5">
+        <f t="shared" ref="J8:J10" si="6">1/J3^2</f>
+        <v>4625458.2746257475</v>
+      </c>
       <c r="K8" s="2"/>
+      <c r="N8" s="1">
+        <f>N6*N7</f>
+        <v>2197.4476528828986</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C9" s="2"/>
@@ -911,10 +928,20 @@
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>-0.14180000000000001</v>
       </c>
+      <c r="J9" s="5">
+        <f t="shared" si="6"/>
+        <v>5777827.6308940081</v>
+      </c>
       <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J10" s="5">
+        <f t="shared" si="6"/>
+        <v>10369802.003880903</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
